--- a/marking.xlsx
+++ b/marking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Library/CloudStorage/Dropbox/Cavendish/Demonstrating/2024/II Computational Physics Lent 2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBB5BBC-4B2C-3E4B-B36E-C0717275D939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44F6CBB-B50C-4447-B5ED-D7D671A43948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{932463AD-895F-824B-8D7D-4FAF869EFFA2}"/>
+    <workbookView xWindow="-12520" yWindow="-21100" windowWidth="19200" windowHeight="21100" xr2:uid="{932463AD-895F-824B-8D7D-4FAF869EFFA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>Student</t>
   </si>
@@ -146,9 +146,6 @@
     <t>tjh203</t>
   </si>
   <si>
-    <t>wsj22</t>
-  </si>
-  <si>
     <t>xd255</t>
   </si>
   <si>
@@ -156,6 +153,27 @@
   </si>
   <si>
     <t>yg389</t>
+  </si>
+  <si>
+    <t>Very good latex format!</t>
+  </si>
+  <si>
+    <t>Nice visualation of plot (many squares very easy to understand)</t>
+  </si>
+  <si>
+    <t>Cleanest plot thus far</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>/12</t>
+  </si>
+  <si>
+    <t>/16</t>
+  </si>
+  <si>
+    <t>wsg22</t>
   </si>
 </sst>
 </file>
@@ -184,7 +202,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,12 +211,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -221,15 +251,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -237,8 +290,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -575,159 +643,210 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984EE6FE-20C7-8646-BED9-D94981FEF935}">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" customWidth="1"/>
-    <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="2.83203125" customWidth="1"/>
-    <col min="7" max="7" width="7.5" customWidth="1"/>
-    <col min="8" max="8" width="7.83203125" customWidth="1"/>
-    <col min="9" max="10" width="7" customWidth="1"/>
-    <col min="11" max="11" width="7.1640625" customWidth="1"/>
-    <col min="12" max="12" width="2.33203125" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" customWidth="1"/>
-    <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="6.33203125" customWidth="1"/>
-    <col min="16" max="16" width="9.33203125" customWidth="1"/>
-    <col min="17" max="17" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="5.5" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="7.5" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" customWidth="1"/>
+    <col min="10" max="11" width="7" customWidth="1"/>
+    <col min="12" max="12" width="7.1640625" customWidth="1"/>
+    <col min="13" max="13" width="17.83203125" style="13" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" customWidth="1"/>
+    <col min="15" max="15" width="8" customWidth="1"/>
+    <col min="16" max="16" width="6.33203125" customWidth="1"/>
+    <col min="17" max="17" width="9.33203125" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" customWidth="1"/>
+    <col min="19" max="19" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="2" t="s">
+      <c r="G1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="3" t="s">
+      <c r="M2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S2" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
+      <c r="B3" s="10"/>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="G3">
-        <v>2</v>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13">
+        <f>SUM(C3:F3)</f>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
       <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="13">
+        <f>SUM(H3:L3)</f>
+        <v>9</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3" s="13">
+        <f>SUM(N3:R3)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
+      <c r="B4" s="10"/>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
-      <c r="G4">
-        <v>2</v>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="13">
+        <f t="shared" ref="G4:G28" si="0">SUM(C4:F4)</f>
+        <v>12</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -735,89 +854,173 @@
       <c r="K4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4" s="13">
+        <f t="shared" ref="M4:M28" si="1">SUM(H4:L4)</f>
+        <v>11</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4" s="13">
+        <f t="shared" ref="S4:S28" si="2">SUM(N4:R4)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
+      <c r="B5" s="10"/>
       <c r="C5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
-      <c r="G5">
-        <v>1</v>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>3</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5" s="13">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="13">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
+      <c r="B6" s="10"/>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="13">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6" s="13">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6" s="13">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
+      <c r="B7" s="10"/>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
-      <c r="G7">
-        <v>2</v>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -831,287 +1034,545 @@
       <c r="K7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7" s="13">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <v>4</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7" s="13">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
+      <c r="B8" s="10"/>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
-      <c r="G8">
-        <v>2</v>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>3</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8" s="13">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8">
+        <v>4</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8" s="13">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
+      <c r="B9" s="10"/>
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
-      <c r="G9">
-        <v>2</v>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="13">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>3</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" s="13">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9" s="13">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
+      <c r="B10" s="10"/>
       <c r="C10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="13">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>3</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10" s="13">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
+      <c r="O10">
+        <v>4</v>
+      </c>
+      <c r="P10">
+        <v>4</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10" s="13">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
+      <c r="B11" s="10"/>
       <c r="C11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>3</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11" s="13">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+      <c r="P11">
+        <v>4</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11" s="13">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
+      <c r="B12" s="10"/>
       <c r="C12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
-      <c r="G12">
-        <v>2</v>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" s="13">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <v>3</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12" s="13">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="N12">
+        <v>4</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12" s="13">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
+      <c r="B13" s="10"/>
       <c r="C13">
         <v>4</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <v>3</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13" s="13">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+      <c r="P13">
+        <v>3</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13" s="13">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
+      <c r="B14" s="10"/>
       <c r="C14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
-      <c r="G14">
-        <v>2</v>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" s="13">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14">
         <v>3</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14" s="13">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="N14">
+        <v>4</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="P14">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14" s="13">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="T14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
+      <c r="B15" s="10"/>
       <c r="C15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
-      <c r="G15">
-        <v>2</v>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" s="13">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15">
         <v>2</v>
       </c>
       <c r="K15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15" s="13">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="O15">
+        <v>4</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15" s="13">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="T15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
+      <c r="B16" s="10"/>
       <c r="C16">
         <v>4</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
-      <c r="G16">
-        <v>2</v>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" s="13">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16">
         <v>2</v>
@@ -1119,16 +1580,40 @@
       <c r="K16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16" s="13">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16" s="13">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
+      <c r="B17" s="10"/>
       <c r="C17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1136,14 +1621,18 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="G17">
-        <v>1</v>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1151,364 +1640,704 @@
       <c r="K17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" s="13">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17" s="13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>29</v>
       </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
+      <c r="B18" s="10"/>
       <c r="C18">
         <v>4</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" s="13">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <v>3</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18" s="13">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="N18">
+        <v>4</v>
+      </c>
+      <c r="O18">
+        <v>3</v>
+      </c>
+      <c r="P18">
+        <v>4</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18" s="13">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>30</v>
       </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
+      <c r="B19" s="10"/>
       <c r="C19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="13">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <v>3</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19" s="13">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="N19">
+        <v>4</v>
+      </c>
+      <c r="O19">
+        <v>3</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>2</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19" s="13">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>31</v>
       </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
+      <c r="B20" s="10"/>
       <c r="C20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
-      <c r="G20">
-        <v>2</v>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" s="13">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>3</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20" s="13">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="N20">
+        <v>4</v>
+      </c>
+      <c r="O20">
+        <v>4</v>
+      </c>
+      <c r="P20">
+        <v>4</v>
+      </c>
+      <c r="Q20">
+        <v>2</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20" s="13">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
+      <c r="B21" s="10"/>
       <c r="C21">
         <v>3</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
-      <c r="G21">
-        <v>2</v>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <v>3</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21" s="13">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="N21">
+        <v>4</v>
+      </c>
+      <c r="O21">
+        <v>4</v>
+      </c>
+      <c r="P21">
+        <v>4</v>
+      </c>
+      <c r="Q21">
+        <v>2</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21" s="13">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="T21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>33</v>
       </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
+      <c r="B22" s="10"/>
       <c r="C22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
-      <c r="G22">
-        <v>1</v>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" s="13">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22" s="13">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="N22">
+        <v>4</v>
+      </c>
+      <c r="O22">
+        <v>4</v>
+      </c>
+      <c r="P22">
+        <v>3</v>
+      </c>
+      <c r="Q22">
+        <v>2</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22" s="13">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
+      <c r="B23" s="10"/>
       <c r="C23">
         <v>4</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="G23">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23" s="13">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>3</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23" s="13">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="N23">
+        <v>4</v>
+      </c>
+      <c r="O23">
+        <v>4</v>
+      </c>
+      <c r="P23">
+        <v>4</v>
+      </c>
+      <c r="Q23">
+        <v>2</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23" s="13">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="T23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
+      <c r="B24" s="10"/>
       <c r="C24">
         <v>2</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="G24">
-        <v>1</v>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="13">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>3</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24" s="13">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="N24">
+        <v>4</v>
+      </c>
+      <c r="O24">
+        <v>4</v>
+      </c>
+      <c r="P24">
+        <v>3</v>
+      </c>
+      <c r="Q24">
+        <v>2</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24" s="13">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="T24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25" s="13">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="N25">
+        <v>4</v>
+      </c>
+      <c r="O25">
+        <v>4</v>
+      </c>
+      <c r="P25">
+        <v>4</v>
+      </c>
+      <c r="Q25">
+        <v>2</v>
+      </c>
+      <c r="R25">
+        <v>2</v>
+      </c>
+      <c r="S25" s="13">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>36</v>
       </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>2</v>
-      </c>
-      <c r="I25">
-        <v>3</v>
-      </c>
-      <c r="J25">
-        <v>2</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26" s="13">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="N26">
+        <v>3</v>
+      </c>
+      <c r="O26">
+        <v>3</v>
+      </c>
+      <c r="P26">
+        <v>2</v>
+      </c>
+      <c r="Q26">
+        <v>2</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26" s="13">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>37</v>
       </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>2</v>
-      </c>
-      <c r="H26">
-        <v>2</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>2</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" s="13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27" s="13">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="N27">
+        <v>4</v>
+      </c>
+      <c r="O27">
+        <v>2</v>
+      </c>
+      <c r="P27">
+        <v>3</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27" s="13">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>38</v>
       </c>
-      <c r="B27">
-        <v>4</v>
-      </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>2</v>
-      </c>
-      <c r="H27">
-        <v>3</v>
-      </c>
-      <c r="I27">
-        <v>2</v>
-      </c>
-      <c r="J27">
-        <v>2</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
       <c r="C28">
         <v>3</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J28">
         <v>2</v>
       </c>
       <c r="K28">
         <v>2</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="M28" s="13">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+      <c r="O28">
+        <v>3</v>
+      </c>
+      <c r="P28">
+        <v>2</v>
+      </c>
+      <c r="Q28">
+        <v>2</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28" s="13">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="N1:R1"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
